--- a/MotorAngle.xlsx
+++ b/MotorAngle.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_Tsimen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="14520" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,6 +37,50 @@
     <t>备注</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000001/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3SP008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0144</t>
+    </r>
+  </si>
+  <si>
     <t>无</t>
   </si>
   <si>
@@ -412,6 +451,31 @@
     <t>N3SP0080209</t>
   </si>
   <si>
+    <t>TS-2000-000011/V1.1.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3SP0080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>217</t>
+    </r>
+  </si>
+  <si>
     <t>TS-2000-000012/V1.1.1</t>
   </si>
   <si>
@@ -424,6 +488,50 @@
     <t>N3SP0080222</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000014/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3SP00802</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
     <t>TS-2000-000015/V1.1.1</t>
   </si>
   <si>
@@ -452,6 +560,50 @@
     <t>TS-2000-000016/V1.1.1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000017/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NS3P0080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>207</t>
+    </r>
+  </si>
+  <si>
     <t>TS-2000-000018/V1.1.1</t>
   </si>
   <si>
@@ -462,141 +614,22 @@
   </si>
   <si>
     <t>TS-2000-000021/V1.1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TS-2000-000022/V1.1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-2000-000011/V1.1.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TS-2000-000014/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TS-2000-000001/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N3SP008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0144</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NS3P0080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>207</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TS-2000-000017/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N3SP0080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>217</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N3SP00802</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,21 +652,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,13 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,8 +834,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -673,43 +1029,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -967,19 +1609,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
@@ -987,511 +1629,511 @@
     <col min="7" max="7" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="30" customHeight="1" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="2:7">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>980</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1280</v>
+      </c>
+      <c r="F4" s="5">
+        <v>800</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>980</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>780</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1020</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1290</v>
+      </c>
+      <c r="F6" s="5">
+        <v>820</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5">
+        <v>970</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>770</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5">
+        <v>920</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1150</v>
+      </c>
+      <c r="F8" s="5">
+        <v>730</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1040</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1260</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1060</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="5">
+        <v>840</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5">
+        <v>990</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1230</v>
+      </c>
+      <c r="F11" s="5">
+        <v>780</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
+        <v>930</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1180</v>
+      </c>
+      <c r="F12" s="5">
+        <v>730</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1040</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F13" s="5">
+        <v>840</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5">
+        <v>970</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="5">
+        <v>770</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>920</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1160</v>
+      </c>
+      <c r="F15" s="5">
+        <v>720</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5">
+        <v>970</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="5">
+        <v>770</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5">
+        <v>920</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1180</v>
+      </c>
+      <c r="F17" s="5">
+        <v>710</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5">
+        <v>910</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1140</v>
+      </c>
+      <c r="F18" s="5">
+        <v>700</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5">
+        <v>930</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1180</v>
+      </c>
+      <c r="F19" s="5">
+        <v>720</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D20" s="5">
+        <v>890</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1120</v>
+      </c>
+      <c r="F20" s="5">
+        <v>700</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
-        <v>950</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1130</v>
-      </c>
-      <c r="F4" s="3">
-        <v>700</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>980</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="3">
-        <v>780</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1290</v>
-      </c>
-      <c r="F6" s="3">
-        <v>820</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
-        <v>970</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F7" s="3">
-        <v>770</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="5">
+        <v>1040</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1280</v>
+      </c>
+      <c r="F21" s="5">
+        <v>830</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5">
         <v>920</v>
       </c>
-      <c r="E8" s="3">
-        <v>1150</v>
-      </c>
-      <c r="F8" s="3">
-        <v>730</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1040</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1260</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="E22" s="5">
+        <v>1180</v>
+      </c>
+      <c r="F22" s="5">
+        <v>710</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5">
         <v>1060</v>
       </c>
-      <c r="E10" s="3">
-        <v>1280</v>
-      </c>
-      <c r="F10" s="3">
-        <v>840</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
-        <v>990</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1230</v>
-      </c>
-      <c r="F11" s="3">
-        <v>780</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3">
-        <v>930</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1180</v>
-      </c>
-      <c r="F12" s="3">
-        <v>730</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1040</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="E23" s="5">
         <v>1300</v>
       </c>
-      <c r="F13" s="3">
-        <v>840</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="F23" s="5">
+        <v>850</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3">
-        <v>970</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>770</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3">
-        <v>920</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1160</v>
-      </c>
-      <c r="F15" s="3">
-        <v>720</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3">
-        <v>970</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="3">
-        <v>770</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1250</v>
+      </c>
+      <c r="F24" s="5">
+        <v>790</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3">
-        <v>920</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1180</v>
-      </c>
-      <c r="F17" s="3">
-        <v>710</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3">
-        <v>910</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1140</v>
-      </c>
-      <c r="F18" s="3">
-        <v>700</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
-        <v>930</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1180</v>
-      </c>
-      <c r="F19" s="3">
-        <v>720</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3">
-        <v>890</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1120</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3">
-        <v>1040</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1280</v>
-      </c>
-      <c r="F21" s="3">
-        <v>830</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3">
-        <v>920</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1180</v>
-      </c>
-      <c r="F22" s="3">
-        <v>710</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>1060</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>850</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1250</v>
-      </c>
-      <c r="F24" s="3">
-        <v>790</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5">
         <v>1070</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>1330</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>860</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MotorAngle.xlsx
+++ b/MotorAngle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14520" windowHeight="12855"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>计蒙2000舵机PWM值</t>
   </si>
   <si>
+    <t>现有TS-2000设备数量统计表</t>
+  </si>
+  <si>
     <t>设备ID</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>所属项目</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -81,18 +87,71 @@
     </r>
   </si>
   <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>金陵石化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000002/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3SP0080218</t>
+    </r>
+  </si>
+  <si>
     <t>无</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000002/V1.1.</t>
+    <t>公司（流通池报废）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000003/V1.1.</t>
     </r>
     <r>
       <rPr>
@@ -124,19 +183,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3SP0080218</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000003/V1.1.</t>
+      <t>3SP0080208</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>展示设备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000004/V1.1.</t>
     </r>
     <r>
       <rPr>
@@ -150,6 +215,126 @@
     </r>
   </si>
   <si>
+    <t>演示设备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000005/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>N3SP0080212</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <t>东郊水厂</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -168,22 +353,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3SP0080208</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000004/V1.1.</t>
+      <t>3SP0080219</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/V1.1.</t>
     </r>
     <r>
       <rPr>
@@ -197,15 +389,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000005/V1.1.</t>
+    <t>长庆石化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/V1.1.</t>
     </r>
     <r>
       <rPr>
@@ -227,7 +432,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TS-2000-000006</t>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3SP0080220</t>
+    </r>
+  </si>
+  <si>
+    <t>绍兴OTN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000010</t>
     </r>
     <r>
       <rPr>
@@ -251,61 +481,91 @@
     </r>
   </si>
   <si>
-    <t>N3SP0080212</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>·8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t>N3SP0080209</t>
+  </si>
+  <si>
+    <t>TS-2000-000011/V1.1.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3SP0080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>217</t>
+    </r>
+  </si>
+  <si>
+    <t>TS-2000-000012/V1.1.1</t>
+  </si>
+  <si>
+    <t>N3SP0080210</t>
+  </si>
+  <si>
+    <t>TS-2000-000013/V1.1.1</t>
+  </si>
+  <si>
+    <t>N3SP0080222</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000014/V1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3SP00802</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <t>TS-2000-000015/V1.1.1</t>
   </si>
   <si>
     <r>
@@ -326,177 +586,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3SP0080219</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3SP0080220</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>N3SP0080209</t>
-  </si>
-  <si>
-    <t>TS-2000-000011/V1.1.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N3SP0080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>217</t>
-    </r>
-  </si>
-  <si>
-    <t>TS-2000-000012/V1.1.1</t>
-  </si>
-  <si>
-    <t>N3SP0080210</t>
-  </si>
-  <si>
-    <t>TS-2000-000013/V1.1.1</t>
-  </si>
-  <si>
-    <t>N3SP0080222</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000014/V1.1.</t>
+      <t>3SP0080224</t>
+    </r>
+  </si>
+  <si>
+    <t>扬子石化</t>
+  </si>
+  <si>
+    <t>TS-2000-000016/V1.1.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS-2000-000017/V1.1.</t>
     </r>
     <r>
       <rPr>
@@ -518,78 +626,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>N3SP00802</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <t>TS-2000-000015/V1.1.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3SP0080224</t>
-    </r>
-  </si>
-  <si>
-    <t>TS-2000-000016/V1.1.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS-2000-000017/V1.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>NS3P0080</t>
     </r>
     <r>
@@ -604,6 +640,9 @@
     </r>
   </si>
   <si>
+    <t>天津石化</t>
+  </si>
+  <si>
     <t>TS-2000-000018/V1.1.1</t>
   </si>
   <si>
@@ -617,6 +656,78 @@
   </si>
   <si>
     <t>TS-2000-000022/V1.1.1</t>
+  </si>
+  <si>
+    <t>TS-2000-000026/V1.1.2</t>
+  </si>
+  <si>
+    <t>中煤榆林</t>
+  </si>
+  <si>
+    <t>TS-2000-000027/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000028/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000029/V1.1.2</t>
+  </si>
+  <si>
+    <t>北京承启通</t>
+  </si>
+  <si>
+    <t>TS-2000-000030/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000031/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000032/V1.1.2</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>TS-2000-000033/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000034/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000035/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000036/V1.1.2</t>
+  </si>
+  <si>
+    <t>金木措</t>
+  </si>
+  <si>
+    <t>TS-2000-000037/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000038/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000039/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000040/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000041/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000042/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000043/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000044/V1.1.2</t>
+  </si>
+  <si>
+    <t>TS-2000-000045/V1.1.2</t>
   </si>
 </sst>
 </file>
@@ -653,7 +764,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -803,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,6 +946,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -932,12 +1060,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -981,12 +1103,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,10 +1249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,16 +1261,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,10 +1282,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,28 +1306,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1220,62 +1336,62 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,19 +1399,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1615,10 +1739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1627,9 +1751,12 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="13" width="31.875" customWidth="1"/>
+    <col min="14" max="14" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="30" customHeight="1" spans="2:7">
+    <row r="2" ht="30" customHeight="1" spans="2:14">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,33 +1765,43 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="2:7">
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="2:14">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>980</v>
@@ -1676,15 +1813,21 @@
         <v>800</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+      <c r="N4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>980</v>
@@ -1696,15 +1839,21 @@
         <v>780</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>1020</v>
@@ -1716,17 +1865,23 @@
         <v>820</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="5">
         <v>970</v>
       </c>
@@ -1737,14 +1892,23 @@
         <v>770</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>970</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="5">
         <v>920</v>
       </c>
@@ -1755,13 +1919,22 @@
         <v>730</v>
       </c>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
+      <c r="K8">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="5">
         <v>1040</v>
@@ -1769,17 +1942,26 @@
       <c r="E9" s="5">
         <v>1260</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
+      <c r="K9">
+        <v>770</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="5">
         <v>1060</v>
@@ -1791,12 +1973,18 @@
         <v>840</v>
       </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="M10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="5">
         <v>990</v>
       </c>
@@ -1807,13 +1995,19 @@
         <v>780</v>
       </c>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <v>930</v>
@@ -1825,13 +2019,19 @@
         <v>730</v>
       </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
+      <c r="M12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="5">
         <v>1040</v>
@@ -1843,13 +2043,19 @@
         <v>840</v>
       </c>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="6" t="s">
-        <v>27</v>
+      <c r="M13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <v>970</v>
@@ -1861,13 +2067,19 @@
         <v>770</v>
       </c>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
+      <c r="M14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="5">
         <v>920</v>
@@ -1879,13 +2091,19 @@
         <v>720</v>
       </c>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="5">
         <v>970</v>
@@ -1897,13 +2115,19 @@
         <v>770</v>
       </c>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="M16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5">
         <v>920</v>
@@ -1915,13 +2139,19 @@
         <v>710</v>
       </c>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
+      <c r="M17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="5">
         <v>910</v>
@@ -1933,12 +2163,18 @@
         <v>700</v>
       </c>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6"/>
+      <c r="M18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="5">
         <v>930</v>
       </c>
@@ -1949,13 +2185,19 @@
         <v>720</v>
       </c>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5">
         <v>890</v>
@@ -1967,12 +2209,18 @@
         <v>700</v>
       </c>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="6"/>
+      <c r="M20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="5">
         <v>1040</v>
       </c>
@@ -1983,12 +2231,18 @@
         <v>830</v>
       </c>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6"/>
+      <c r="M21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="5">
         <v>920</v>
       </c>
@@ -1999,12 +2253,18 @@
         <v>710</v>
       </c>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6"/>
+      <c r="M22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="5">
         <v>1060</v>
       </c>
@@ -2015,12 +2275,18 @@
         <v>850</v>
       </c>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="6"/>
+      <c r="M23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="5">
         <v>1000</v>
       </c>
@@ -2031,12 +2297,18 @@
         <v>790</v>
       </c>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6"/>
+      <c r="M24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="5">
         <v>1070</v>
       </c>
@@ -2047,90 +2319,463 @@
         <v>860</v>
       </c>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="M25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="M26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>950</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F27" s="8">
+        <v>750</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <v>1020</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1260</v>
+      </c>
+      <c r="F28" s="8">
+        <v>800</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>920</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1170</v>
+      </c>
+      <c r="F29" s="8">
+        <v>700</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
+        <v>920</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F30" s="8">
+        <v>720</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1240</v>
+      </c>
+      <c r="F31" s="8">
+        <v>790</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
+        <v>970</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="8">
+        <v>750</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>920</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F33" s="8">
+        <v>710</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
+        <v>950</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F34" s="8">
+        <v>740</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="M34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1270</v>
+      </c>
+      <c r="F35" s="8">
+        <v>830</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="M35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>1020</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1250</v>
+      </c>
+      <c r="F36" s="8">
+        <v>800</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="M36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1280</v>
+      </c>
+      <c r="F37" s="8">
+        <v>840</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="M37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
+        <v>1150</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1380</v>
+      </c>
+      <c r="F38" s="8">
+        <v>900</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="M38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
+        <v>950</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1150</v>
+      </c>
+      <c r="F39" s="8">
+        <v>720</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
+        <v>970</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F40" s="8">
+        <v>750</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="M40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8">
+        <v>1060</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1280</v>
+      </c>
+      <c r="F41" s="8">
+        <v>850</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
+        <v>970</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F42" s="8">
+        <v>740</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1280</v>
+      </c>
+      <c r="F43" s="8">
+        <v>830</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="M43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8">
+        <v>930</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1140</v>
+      </c>
+      <c r="F44" s="8">
+        <v>700</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="M44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8">
+        <v>970</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="8">
+        <v>750</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="M45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8">
+        <v>950</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1160</v>
+      </c>
+      <c r="F46" s="8">
+        <v>730</v>
+      </c>
+      <c r="G46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
